--- a/Study/bilibili_ranking.xlsx
+++ b/Study/bilibili_ranking.xlsx
@@ -541,22 +541,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>帮我见证一下，她叫韩琳，欠我一份炒面！</t>
+          <t>【2008.5.12-2025.5.12】今天，为汶川留一分钟</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BV1zX5LzAEkc</t>
+          <t>BV13bEMz3EBD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>亲子</t>
+          <t>人文历史</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1zX5LzAEkc</t>
+          <t>https://b23.tv/BV13bEMz3EBD</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>🐱 “ 优 ！ 雅 ！ ” 🐱</t>
+          <t>选 择 你 的 干 员 ！</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BV1Tm5MzWEqW</t>
+          <t>BV1NhVZzsEdd</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>喵星人</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Tm5MzWEqW</t>
+          <t>https://b23.tv/BV1NhVZzsEdd</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>这就是顶级杀手的食量</t>
+          <t>《一场盛大的陵园购》</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BV1FsVSz4EMs</t>
+          <t>BV1XvVfz6Ern</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>影视杂谈</t>
+          <t>动物二创</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1FsVSz4EMs</t>
+          <t>https://b23.tv/BV1XvVfz6Ern</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>这就是来自盾哥抓钩的救赎嘛？？</t>
+          <t>这就是顶级杀手的食量</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BV1XrVSzyEHL</t>
+          <t>BV1FsVSz4EMs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>影视杂谈</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1XrVSzyEHL</t>
+          <t>https://b23.tv/BV1FsVSz4EMs</t>
         </is>
       </c>
     </row>
@@ -666,22 +666,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>选 择 你 的 干 员 ！</t>
+          <t>🐱 “ 优 ！ 雅 ！ ” 🐱</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BV1NhVZzsEdd</t>
+          <t>BV1Tm5MzWEqW</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>喵星人</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1NhVZzsEdd</t>
+          <t>https://b23.tv/BV1Tm5MzWEqW</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>是的，这是我干的</t>
+          <t>【萌黄一槽】自来也[传说中的三忍]全技能爆料！快速结印应对自如！</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BV1nUV8zuEyU</t>
+          <t>BV1SwVozsELS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>日常</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1nUV8zuEyU</t>
+          <t>https://b23.tv/BV1SwVozsELS</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>《一场盛大的陵园购》</t>
+          <t>帮我见证一下，她叫韩琳，欠我一份炒面！</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BV1XvVfz6Ern</t>
+          <t>BV1zX5LzAEkc</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>动物二创</t>
+          <t>亲子</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1XvVfz6Ern</t>
+          <t>https://b23.tv/BV1zX5LzAEkc</t>
         </is>
       </c>
     </row>
@@ -741,22 +741,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>《所罗门群岛》第6集：深入南太平洋无人岛，不仅海参泛滥，就连个头也是粗如大腿！</t>
+          <t>这就是来自盾哥抓钩的救赎嘛？？</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BV1PmVazmEDg</t>
+          <t>BV1XrVSzyEHL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>出行</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1PmVazmEDg</t>
+          <t>https://b23.tv/BV1XrVSzyEHL</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>【萌黄一槽】自来也[传说中的三忍]全技能爆料！快速结印应对自如！</t>
+          <t>致富经：异形入侵不要慌，山海异兽护家乡</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BV1SwVozsELS</t>
+          <t>BV1mCVoz4ErM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>搞笑</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1SwVozsELS</t>
+          <t>https://b23.tv/BV1mCVoz4ErM</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>评论区摄影大赛之一边是黑暗的自由，一边是光明的禁锢。</t>
+          <t>【超人杯第二季】当五个职业C+对战天禄战队</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BV1vo5VzQEZm</t>
+          <t>BV1cr5FzxEEH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>日常</t>
+          <t>电子竞技</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1vo5VzQEZm</t>
+          <t>https://b23.tv/BV1cr5FzxEEH</t>
         </is>
       </c>
     </row>
@@ -816,22 +816,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>致富经：异形入侵不要慌，山海异兽护家乡</t>
+          <t>是的，这是我干的</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BV1mCVoz4ErM</t>
+          <t>BV1nUV8zuEyU</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1mCVoz4ErM</t>
+          <t>https://b23.tv/BV1nUV8zuEyU</t>
         </is>
       </c>
     </row>
@@ -841,22 +841,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>全球排名第一自助餐！每天500种美食！到底都吃什么？</t>
+          <t>最开始只是因为家里的沙发被猫霸占了…</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BV1Rs5LzHE2a</t>
+          <t>BV1pyVXzgEQX</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>美食侦探</t>
+          <t>家居房产</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Rs5LzHE2a</t>
+          <t>https://b23.tv/BV1pyVXzgEQX</t>
         </is>
       </c>
     </row>
@@ -891,22 +891,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>觉醒山海经？我随手召唤无数神兽</t>
+          <t>因为终点比别人远，所以要跑得更快！</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BV1Vb5KzZEnk</t>
+          <t>BV1Y4VRz8ESW</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>同人·手书</t>
+          <t>运动综合</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Vb5KzZEnk</t>
+          <t>https://b23.tv/BV1Y4VRz8ESW</t>
         </is>
       </c>
     </row>
@@ -916,22 +916,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>《崩坏：星穹铁道》3.3版本PV：「‍在黎明升起时坠落」</t>
+          <t>“小丑”如何成为总统？深度拆解特朗普的媒体形象营造！</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BV16h5NzqE2K</t>
+          <t>BV1pdVozEEXj</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>影视杂谈</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV16h5NzqE2K</t>
+          <t>https://b23.tv/BV1pdVozEEXj</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>你可能认识俺，但你不一定知道这是俺们的歌~</t>
+          <t>历时半年【值得前行】大结局 终于来了！</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BV1BX5VzsE9F</t>
+          <t>BV1fnVozGErH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>预告·资讯</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1BX5VzsE9F</t>
+          <t>https://b23.tv/BV1fnVozGErH</t>
         </is>
       </c>
     </row>
@@ -966,22 +966,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>最开始只是因为家里的沙发被猫霸占了…</t>
+          <t>今年暑假前，会有一款超级厉害的游戏问世</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BV1pyVXzgEQX</t>
+          <t>BV1wSEMzoEMk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>家居房产</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1pyVXzgEQX</t>
+          <t>https://b23.tv/BV1wSEMzoEMk</t>
         </is>
       </c>
     </row>
@@ -991,22 +991,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>霍乱！鹅桑永存！</t>
+          <t>【IGN】《鸣潮》共鸣者「卡提希娅」演示</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BV1q25TzNEey</t>
+          <t>BV1vJVXz4E3b</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>日常</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1q25TzNEey</t>
+          <t>https://b23.tv/BV1vJVXz4E3b</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>独立游戏大电影！数年难遇【神作】！《Indie Cross》究竟讲了什么？</t>
+          <t>我叔十年前答应送我的直升飞机，造出来了</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BV1Nf55zgEXP</t>
+          <t>BV1nXVRzkEYx</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>三农</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Nf55zgEXP</t>
+          <t>https://b23.tv/BV1nXVRzkEYx</t>
         </is>
       </c>
     </row>
@@ -1041,22 +1041,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>“小丑”如何成为总统？深度拆解特朗普的媒体形象营造！</t>
+          <t>评论区摄影大赛之一边是黑暗的自由，一边是光明的禁锢。</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BV1pdVozEEXj</t>
+          <t>BV1vo5VzQEZm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>影视杂谈</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1pdVozEEXj</t>
+          <t>https://b23.tv/BV1vo5VzQEZm</t>
         </is>
       </c>
     </row>
@@ -1066,22 +1066,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>历时半年【值得前行】大结局 终于来了！</t>
+          <t>全球排名第一自助餐！每天500种美食！到底都吃什么？</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BV1fnVozGErH</t>
+          <t>BV1Rs5LzHE2a</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>同人·手书</t>
+          <t>美食侦探</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1fnVozGErH</t>
+          <t>https://b23.tv/BV1Rs5LzHE2a</t>
         </is>
       </c>
     </row>
@@ -1091,22 +1091,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>基德杀疯了</t>
+          <t>专治死人复活？我调查了真相</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BV1VBVSzmEWZ</t>
+          <t>BV1Uf55zgEFu</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>国产原创相关</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1VBVSzmEWZ</t>
+          <t>https://b23.tv/BV1Uf55zgEFu</t>
         </is>
       </c>
     </row>
@@ -1116,22 +1116,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>怒其不争，哀其不幸…聊聊文学里的顶级文笔</t>
+          <t>基德杀疯了</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BV1hD5Nz9EDF</t>
+          <t>BV1VBVSzmEWZ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>人文历史</t>
+          <t>国产原创相关</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1hD5Nz9EDF</t>
+          <t>https://b23.tv/BV1VBVSzmEWZ</t>
         </is>
       </c>
     </row>
@@ -1141,22 +1141,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>为了证明二哈是地表最强生物，我直接撞飞大运将它捡起!【P2】</t>
+          <t>你可能认识俺，但你不一定知道这是俺们的歌~</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BV1Rp5LzXEv3</t>
+          <t>BV1BX5VzsE9F</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>同人·手书</t>
+          <t>预告·资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Rp5LzXEv3</t>
+          <t>https://b23.tv/BV1BX5VzsE9F</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>什么特工能爆破环保组织？【神奇组织30】</t>
+          <t>为了证明二哈是地表最强生物，我直接撞飞大运将它捡起!【P2】</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BV12Y53z8ECD</t>
+          <t>BV1Rp5LzXEv3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>人文历史</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV12Y53z8ECD</t>
+          <t>https://b23.tv/BV1Rp5LzXEv3</t>
         </is>
       </c>
     </row>
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>【超人杯第二季】当五个职业C+对战天禄战队</t>
+          <t>《所罗门群岛》第6集：深入南太平洋无人岛，不仅海参泛滥，就连个头也是粗如大腿！</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BV1cr5FzxEEH</t>
+          <t>BV1PmVazmEDg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>电子竞技</t>
+          <t>出行</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1cr5FzxEEH</t>
+          <t>https://b23.tv/BV1PmVazmEDg</t>
         </is>
       </c>
     </row>
@@ -1216,22 +1216,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>因为终点比别人远，所以要跑得更快！</t>
+          <t>我在成为神人之前的作品，拿了很多国奖，可惜没什么用！</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BV1Y4VRz8ESW</t>
+          <t>BV1EzEuzpEM6</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>运动综合</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Y4VRz8ESW</t>
+          <t>https://b23.tv/BV1EzEuzpEM6</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>我叔十年前答应送我的直升飞机，造出来了</t>
+          <t>零失败杨枝甘露教程，一分钟教你学会！夏日必备！（王明明 孙安飞 田嘉昊）</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BV1nXVRzkEYx</t>
+          <t>BV1hbVXznE8i</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>三农</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1nXVRzkEYx</t>
+          <t>https://b23.tv/BV1hbVXznE8i</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>【2008.5.12-2025.5.12】今天，为汶川留一分钟</t>
+          <t>打王者为妹妹攒学费的《第一天》</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BV13bEMz3EBD</t>
+          <t>BV1xCVRzUE46</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>人文历史</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV13bEMz3EBD</t>
+          <t>https://b23.tv/BV1xCVRzUE46</t>
         </is>
       </c>
     </row>
@@ -1291,22 +1291,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>“人活着，到哪儿还不是做条狗啊？”</t>
+          <t>独立游戏大电影！数年难遇【神作】！《Indie Cross》究竟讲了什么？</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BV1jEV8zfEM8</t>
+          <t>BV1Nf55zgEXP</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>人文历史</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1jEV8zfEM8</t>
+          <t>https://b23.tv/BV1Nf55zgEXP</t>
         </is>
       </c>
     </row>
@@ -1316,22 +1316,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>【IGN】《鸣潮》共鸣者「卡提希娅」演示</t>
+          <t>奇怪自行车T台秀 为了这条视频 我们准备了三年</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BV1vJVXz4E3b</t>
+          <t>BV1325Gz6EmS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>极客DIY</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1vJVXz4E3b</t>
+          <t>https://b23.tv/BV1325Gz6EmS</t>
         </is>
       </c>
     </row>
@@ -1341,22 +1341,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>我竟然跟着团长打县城！体验国内最好玩的景点！太爽了！</t>
+          <t>“猫头鹰：你摸我头，我摸你脖子不过分吧！”#猫头鹰 #游隼</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BV1pBVUzZE6e</t>
+          <t>BV1apVDz2EKQ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>出行</t>
+          <t>运动综合</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1pBVUzZE6e</t>
+          <t>https://b23.tv/BV1apVDz2EKQ</t>
         </is>
       </c>
     </row>
@@ -1366,22 +1366,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>挪威黄金海胆北极贝泛滥！芬兰家人跨国捡爆桶太炸裂！中式海鲜盛宴蒜蓉爆炒花式做法震撼芬兰人！</t>
+          <t>大花葱与松虫草中式插花教程#远征教插花 #中式插花 #东方插花 #生活美学</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BV11C5LzuE7x</t>
+          <t>BV1Ru5uzMEB5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>美食记录</t>
+          <t>手工</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV11C5LzuE7x</t>
+          <t>https://b23.tv/BV1Ru5uzMEB5</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>还原世界上最大的飞机！我们造了一架AN-225</t>
+          <t>“县城青年失业记”</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BV1vo5VzQEzE</t>
+          <t>BV1gD55z1Ehf</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>极客DIY</t>
+          <t>出行</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1vo5VzQEzE</t>
+          <t>https://b23.tv/BV1gD55z1Ehf</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>专治死人复活？我调查了真相</t>
+          <t>被全家拉黑！互联网史上最抽象的骗子！</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BV1Uf55zgEFu</t>
+          <t>BV1mKVfz8EdG</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Uf55zgEFu</t>
+          <t>https://b23.tv/BV1mKVfz8EdG</t>
         </is>
       </c>
     </row>
@@ -1441,22 +1441,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>十年饮冰，难凉热血 ，行程万里，初心如一</t>
+          <t>挑战满级卧底赚百万</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BV1D4V8zWEXa</t>
+          <t>BV1cgVXzeEFV</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>短片</t>
+          <t>网络游戏</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1D4V8zWEXa</t>
+          <t>https://b23.tv/BV1cgVXzeEFV</t>
         </is>
       </c>
     </row>
@@ -1466,22 +1466,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>大花葱与松虫草中式插花教程#远征教插花 #中式插花 #东方插花 #生活美学</t>
+          <t>10,000元，收集全网最帅的MC周边【游戏之外】</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BV1Ru5uzMEB5</t>
+          <t>BV1enVXzdE8B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>手工</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Ru5uzMEB5</t>
+          <t>https://b23.tv/BV1enVXzdE8B</t>
         </is>
       </c>
     </row>
@@ -1491,22 +1491,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>挑战复刻灰姑娘在逃公主裙，差点给我做破产！</t>
+          <t>谁会把手机藏在这里啊？？？</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BV1yb5Tz2Ei8</t>
+          <t>BV1d1VdzKEYX</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>手工</t>
+          <t>搞笑</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1yb5Tz2Ei8</t>
+          <t>https://b23.tv/BV1d1VdzKEYX</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>【R.E.D组合】《三彩》MV</t>
+          <t>作死大挑战！别去问Siri哪里是“藏尸的地方”，它的回答太奇怪了</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BV1Me5VzBET1</t>
+          <t>BV1fG5VzXEA8</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>音乐综合</t>
+          <t>手工</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Me5VzBET1</t>
+          <t>https://b23.tv/BV1fG5VzXEA8</t>
         </is>
       </c>
     </row>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>全球扑克牌降临，你却获得了隐藏王牌？</t>
+          <t>爆破4v8挑战3：4个cf职业选手vs8个lol博主！go学长参战！哪边会赢？</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BV18X5NzpE8S</t>
+          <t>BV1LFVQzHEkE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>国产原创相关</t>
+          <t>电子竞技</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV18X5NzpE8S</t>
+          <t>https://b23.tv/BV1LFVQzHEkE</t>
         </is>
       </c>
     </row>
@@ -1566,22 +1566,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>租粉app——专为普通人提供的粉丝租赁服务！（万事俱备只差开发，详情请垂询：…….</t>
+          <t>角色触摸系统</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BV1HG5KzzEUu</t>
+          <t>BV1GoVUz1Eow</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>短片</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1HG5KzzEUu</t>
+          <t>https://b23.tv/BV1GoVUz1Eow</t>
         </is>
       </c>
     </row>
@@ -1591,22 +1591,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>自制漫画《怪物们》—嘟嘟哒：我爱你。</t>
+          <t>【方舟测评#54】 新时代打单！满潜专九新约能天使数据与实战测评</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BV1sj5GzcEim</t>
+          <t>BV1kPVXzqEyd</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>绘画</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1sj5GzcEim</t>
+          <t>https://b23.tv/BV1kPVXzqEyd</t>
         </is>
       </c>
     </row>
@@ -1616,22 +1616,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9.9元一支“拼好糕”？资本又做局阴我！！</t>
+          <t>这下真破防了！</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BV1u8V8zHE96</t>
+          <t>BV1n35LzwEk2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>美食测评</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1u8V8zHE96</t>
+          <t>https://b23.tv/BV1n35LzwEk2</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>“猫头鹰：你摸我头，我摸你脖子不过分吧！”#猫头鹰 #游隼</t>
+          <t>「逃离疯人院」恐怖疯子受到了警察的疯狂追捕！！？#2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BV1apVDz2EKQ</t>
+          <t>BV1kTVXzvE9A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>运动综合</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1apVDz2EKQ</t>
+          <t>https://b23.tv/BV1kTVXzvE9A</t>
         </is>
       </c>
     </row>
@@ -1666,22 +1666,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>作死大挑战！别去问Siri哪里是“藏尸的地方”，它的回答太奇怪了</t>
+          <t>⚡️“说什么鸿运胜天骄，名利似镣铐”⚡️丁真最新古风单曲——《半壶烟》</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BV1fG5VzXEA8</t>
+          <t>BV1CTVXzvEN6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>手工</t>
+          <t>人力VOCALOID</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1fG5VzXEA8</t>
+          <t>https://b23.tv/BV1CTVXzvEN6</t>
         </is>
       </c>
     </row>
@@ -1691,22 +1691,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>00后：小时候的事怕是瞒不住了！！！</t>
+          <t>【高考最后十课】五章串讲篇！2025高考冲刺</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BV19s5LzHEwA</t>
+          <t>BV1jBETzLEmt</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>校园学习</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV19s5LzHEwA</t>
+          <t>https://b23.tv/BV1jBETzLEmt</t>
         </is>
       </c>
     </row>
@@ -1716,22 +1716,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>「逃离疯人院」恐怖疯子受到了警察的疯狂追捕！！？#2</t>
+          <t>《最会取名字の一集》</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BV1kTVXzvE9A</t>
+          <t>BV1SeVRzRErk</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>搞笑</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1kTVXzvE9A</t>
+          <t>https://b23.tv/BV1SeVRzRErk</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>“爱一个人需要理由吗？”</t>
+          <t>🚩完美计算/无限格挡，莫塔里的荣耀！  [4K/无ui]赞妮/柯莱塔VS全息无冠者</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BV1kW5AzeEnW</t>
+          <t>BV1ndVRz6Ehy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>鬼畜剧场</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1kW5AzeEnW</t>
+          <t>https://b23.tv/BV1ndVRz6Ehy</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>零失败杨枝甘露教程，一分钟教你学会！夏日必备！（王明明 孙安飞 田嘉昊）</t>
+          <t>上单七虎谁才是数值怪？笔记本电脑花落谁家？ 《峡谷百万富翁》一战到底挑战赛来了！</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BV1hbVXznE8i</t>
+          <t>BV1dUVdzPECT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>日常</t>
+          <t>电子竞技</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1hbVXznE8i</t>
+          <t>https://b23.tv/BV1dUVdzPECT</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>《绝区零》雨果角色展示 | 末日领衔主犯</t>
+          <t>《河南游六花》</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BV1Aa5Tz1E4G</t>
+          <t>BV1Qs5VzCEGR</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Aa5Tz1E4G</t>
+          <t>https://b23.tv/BV1Qs5VzCEGR</t>
         </is>
       </c>
     </row>
@@ -1816,22 +1816,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>如果回到千禧年代，你会选择哪一款皮肤？</t>
+          <t>乌鲁鲁最正义的一集！</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BV1dy5NzZEvW</t>
+          <t>BV17oVDzWEAh</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>小剧场</t>
+          <t>网络游戏</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1dy5NzZEvW</t>
+          <t>https://b23.tv/BV17oVDzWEAh</t>
         </is>
       </c>
     </row>
@@ -1841,22 +1841,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>双人床是摆摊车的极限，而不是我的极限</t>
+          <t>“我不会允许你伤害那个孩子”</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BV18S5GzBErN</t>
+          <t>BV1LUVdzNEPg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>房车</t>
+          <t>仿妆cos</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV18S5GzBErN</t>
+          <t>https://b23.tv/BV1LUVdzNEPg</t>
         </is>
       </c>
     </row>
@@ -1866,22 +1866,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>奇怪自行车T台秀 为了这条视频 我们准备了三年</t>
+          <t>都这样了，还得把这镜子留着是吧？大兵45拯救成功！</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BV1325Gz6EmS</t>
+          <t>BV1ENVZzGEGd</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>极客DIY</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1325Gz6EmS</t>
+          <t>https://b23.tv/BV1ENVZzGEGd</t>
         </is>
       </c>
     </row>
@@ -1891,22 +1891,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2008年汶川大地震的孩子结婚了。</t>
+          <t>这是穿山甲陷阱！</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BV1rS5LzNEsW</t>
+          <t>BV1yMVoznEuD</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>影视剪辑</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1rS5LzNEsW</t>
+          <t>https://b23.tv/BV1yMVoznEuD</t>
         </is>
       </c>
     </row>
@@ -1916,22 +1916,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>打王者为妹妹攒学费的《第一天》</t>
+          <t>双人床是摆摊车的极限，而不是我的极限</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BV1xCVRzUE46</t>
+          <t>BV18S5GzBErN</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>房车</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1xCVRzUE46</t>
+          <t>https://b23.tv/BV18S5GzBErN</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>挑战满级卧底赚百万</t>
+          <t>欧洲多地生蚝泛滥！为何“吃货”解决不了？【主播说三农】</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BV1cgVXzeEFV</t>
+          <t>BV1XfVZzNEYZ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>网络游戏</t>
+          <t>三农</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1cgVXzeEFV</t>
+          <t>https://b23.tv/BV1XfVZzNEYZ</t>
         </is>
       </c>
     </row>
@@ -1966,22 +1966,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>角色触摸系统</t>
+          <t>烫脚舞</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BV1GoVUz1Eow</t>
+          <t>BV1k3VozEE1y</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>同人·手书</t>
+          <t>宅舞</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1GoVUz1Eow</t>
+          <t>https://b23.tv/BV1k3VozEE1y</t>
         </is>
       </c>
     </row>
@@ -1991,22 +1991,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>对抗比自己大100000000000000000000000000倍的神！游戏史上最大boss之一！被无数次用作沙雕的《阿修罗之怒》究竟讲了什么？？？</t>
+          <t>电脑C盘爆红不用愁。教你4步彻底清理，安全不踩坑</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BV1Bo5Lz8Eqi</t>
+          <t>BV1WXVoznEWv</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>热点</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Bo5Lz8Eqi</t>
+          <t>https://b23.tv/BV1WXVoznEWv</t>
         </is>
       </c>
     </row>
@@ -2016,22 +2016,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10,000元，收集全网最帅的MC周边【游戏之外】</t>
+          <t>觉醒山海经？我随手召唤无数神兽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BV1enVXzdE8B</t>
+          <t>BV1Vb5KzZEnk</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1enVXzdE8B</t>
+          <t>https://b23.tv/BV1Vb5KzZEnk</t>
         </is>
       </c>
     </row>
@@ -2041,22 +2041,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>爆破4v8挑战3：4个cf职业选手vs8个lol博主！go学长参战！哪边会赢？</t>
+          <t>拥有异能后，我竟开始猎杀英雄</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BV1LFVQzHEkE</t>
+          <t>BV1Vs5LzpETj</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>电子竞技</t>
+          <t>国产原创相关</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1LFVQzHEkE</t>
+          <t>https://b23.tv/BV1Vs5LzpETj</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2066,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>一觉醒来才发现，生活了20年的家人全是假的！反转超多结局震撼</t>
+          <t>苦尽甘来时，再讲来时路</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BV1zq5NzYEFw</t>
+          <t>BV1d1VdzKEKn</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>影视杂谈</t>
+          <t>短片</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1zq5NzYEFw</t>
+          <t>https://b23.tv/BV1d1VdzKEKn</t>
         </is>
       </c>
     </row>
@@ -2091,22 +2091,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>“县城青年失业记”</t>
+          <t>用格莱美慢镜头打开劳动人民的二十四小时#光芒闪耀的你 #格莱美慢镜头 #五一 #劳动者是最美的人</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BV1gD55z1Ehf</t>
+          <t>BV1vEGYzYEnh</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>出行</t>
+          <t>时尚潮流</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1gD55z1Ehf</t>
+          <t>https://b23.tv/BV1vEGYzYEnh</t>
         </is>
       </c>
     </row>
@@ -2116,22 +2116,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>【方舟测评#54】 新时代打单！满潜专九新约能天使数据与实战测评</t>
+          <t>还原世界上最大的飞机！我们造了一架AN-225</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BV1kPVXzqEyd</t>
+          <t>BV1vo5VzQEzE</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>极客DIY</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1kPVXzqEyd</t>
+          <t>https://b23.tv/BV1vo5VzQEzE</t>
         </is>
       </c>
     </row>
@@ -2141,22 +2141,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>明明流动的水，为什么看着却是静止的？不可思议的层流现象</t>
+          <t>【明日方舟】你说你带她过来干吗？！？！？！？！</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BV1WK5KzCE3o</t>
+          <t>BV1ux5FziEAp</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>科学科普</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1WK5KzCE3o</t>
+          <t>https://b23.tv/BV1ux5FziEAp</t>
         </is>
       </c>
     </row>
@@ -2166,22 +2166,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>潘博文事件悬疑烧脑长剧情来了！还想看什么！</t>
+          <t>【拉丝番茄炒蛋】丝状的鸡蛋裹满浓郁茄汁</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BV1RsVazYE94</t>
+          <t>BV1xvELzJEvh</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>日常</t>
+          <t>美食制作</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1RsVazYE94</t>
+          <t>https://b23.tv/BV1xvELzJEvh</t>
         </is>
       </c>
     </row>
@@ -2191,22 +2191,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>这下真破防了！</t>
+          <t>“跺脚变装”是啥！短短几天播放47亿！网友：太魔性！</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BV1n35LzwEk2</t>
+          <t>BV11wVRz2Eg6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>乐评盘点</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1n35LzwEk2</t>
+          <t>https://b23.tv/BV11wVRz2Eg6</t>
         </is>
       </c>
     </row>
@@ -2216,22 +2216,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>19岁就当妈？？我妈是如何拯救了一个封建家庭</t>
+          <t>你们可能不认识我，但是可能看过我的纸绘动画.mp4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BV1KzV8zLEs8</t>
+          <t>BV1hhVRzoEij</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1KzV8zLEs8</t>
+          <t>https://b23.tv/BV1hhVRzoEij</t>
         </is>
       </c>
     </row>
@@ -2241,22 +2241,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>都什么年代，谁还看传统三国？！！</t>
+          <t>全球扑克牌降临，你却获得了隐藏王牌？</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BV13255zEEi7</t>
+          <t>BV18X5NzpE8S</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>同人·手书</t>
+          <t>国产原创相关</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV13255zEEi7</t>
+          <t>https://b23.tv/BV18X5NzpE8S</t>
         </is>
       </c>
     </row>
@@ -2266,22 +2266,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>网络热门长虫视频(94)女子与4米眼镜王蛇徒手肉搏？胜利后将蛇带到医院！把医生吓坏了！</t>
+          <t>你相信洞穴有龙吗  洞穴中价值不菲的金丝楠木你见过吗</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BV1YS5TzAEfd</t>
+          <t>BV18355zGErb</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>科学科普</t>
+          <t>出行</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1YS5TzAEfd</t>
+          <t>https://b23.tv/BV18355zGErb</t>
         </is>
       </c>
     </row>
@@ -2291,22 +2291,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>穿越成海帕杰顿 怪兽当主食 奥特曼当下饭菜P18</t>
+          <t>对抗比自己大100000000000000000000000000倍的神！游戏史上最大boss之一！被无数次用作沙雕的《阿修罗之怒》究竟讲了什么？？？</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BV12i5VzKEdM</t>
+          <t>BV1Bo5Lz8Eqi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>同人·手书</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV12i5VzKEdM</t>
+          <t>https://b23.tv/BV1Bo5Lz8Eqi</t>
         </is>
       </c>
     </row>
@@ -2316,22 +2316,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>【i-dle】'Girlfriend' Official Music Video</t>
+          <t>网络热门长虫视频(94)女子与4米眼镜王蛇徒手肉搏？胜利后将蛇带到医院！把医生吓坏了！</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BV13M5NzWEUs</t>
+          <t>BV1YS5TzAEfd</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>音乐综合</t>
+          <t>科学科普</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV13M5NzWEUs</t>
+          <t>https://b23.tv/BV1YS5TzAEfd</t>
         </is>
       </c>
     </row>
@@ -2341,22 +2341,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>你可能不认识我，但你一定听过我的声音！</t>
+          <t>穿越成海帕杰顿 怪兽当主食 奥特曼当下饭菜P18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BV1kv5uznEWx</t>
+          <t>BV12i5VzKEdM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>娱乐资讯</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1kv5uznEWx</t>
+          <t>https://b23.tv/BV12i5VzKEdM</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>真正的懒人神器，往往都会以废物的形式出现（厨房版）</t>
+          <t>我竟然跟着团长打县城！体验国内最好玩的景点！太爽了！</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BV1F55LzFE7C</t>
+          <t>BV1pBVUzZE6e</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>美食制作</t>
+          <t>出行</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1F55LzFE7C</t>
+          <t>https://b23.tv/BV1pBVUzZE6e</t>
         </is>
       </c>
     </row>
@@ -2391,22 +2391,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>以前小孩玩游戏 VS 现在小孩玩游戏</t>
+          <t>你就是最好的礼物</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BV1J75KzKE7R</t>
+          <t>BV1LDVZzrE6n</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>同人·手书</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1J75KzKE7R</t>
+          <t>https://b23.tv/BV1LDVZzrE6n</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>拥有异能后，我竟开始猎杀英雄</t>
+          <t>偷听校花心声，她居然想嘎你？</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BV1Vs5LzpETj</t>
+          <t>BV1fzVdzgEF7</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Vs5LzpETj</t>
+          <t>https://b23.tv/BV1fzVdzgEF7</t>
         </is>
       </c>
     </row>
@@ -2441,22 +2441,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>国赛获奖的懒人床上桌，粉丝要我升级2.0版</t>
+          <t>【emo歌曲合集】“前奏一响，遗憾登场”</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BV1P25KzjEiy</t>
+          <t>BV1v4VRz8EuY</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>家居房产</t>
+          <t>音乐综合</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1P25KzjEiy</t>
+          <t>https://b23.tv/BV1v4VRz8EuY</t>
         </is>
       </c>
     </row>
@@ -2466,22 +2466,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>魔杖！终于让我给做出来了！</t>
+          <t>走，下一个世界！</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BV16q5Tz3EVk</t>
+          <t>BV1RnVXzdEFp</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>家居房产</t>
+          <t>出行</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV16q5Tz3EVk</t>
+          <t>https://b23.tv/BV1RnVXzdEFp</t>
         </is>
       </c>
     </row>
@@ -2491,22 +2491,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>用格莱美慢镜头打开劳动人民的二十四小时#光芒闪耀的你 #格莱美慢镜头 #五一 #劳动者是最美的人</t>
+          <t>真正的懒人神器，往往都会以废物的形式出现（厨房版）</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BV1vEGYzYEnh</t>
+          <t>BV1F55LzFE7C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>时尚潮流</t>
+          <t>美食制作</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1vEGYzYEnh</t>
+          <t>https://b23.tv/BV1F55LzFE7C</t>
         </is>
       </c>
     </row>
@@ -2516,22 +2516,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>作为SU7ultra准车主，我很失望</t>
+          <t>大合集</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BV1Zj5LzoES9</t>
+          <t>BV1hS55zjEra</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>汽车生活</t>
+          <t>网络游戏</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Zj5LzoES9</t>
+          <t>https://b23.tv/BV1hS55zjEra</t>
         </is>
       </c>
     </row>
@@ -2541,22 +2541,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>如何证明你的超能力16</t>
+          <t>450万粉丝科技区UP主开什么车？极客湾飘哥爱车曝光！</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BV1yx5TzUEQ9</t>
+          <t>BV159VUzmEfh</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>汽车生活</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1yx5TzUEQ9</t>
+          <t>https://b23.tv/BV159VUzmEfh</t>
         </is>
       </c>
     </row>
@@ -2566,22 +2566,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>被全家拉黑！互联网史上最抽象的骗子！</t>
+          <t>怒其不争，哀其不幸…聊聊文学里的顶级文笔</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BV1mKVfz8EdG</t>
+          <t>BV1hD5Nz9EDF</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>日常</t>
+          <t>人文历史</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1mKVfz8EdG</t>
+          <t>https://b23.tv/BV1hD5Nz9EDF</t>
         </is>
       </c>
     </row>
@@ -2591,22 +2591,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>探秘全球最大的国家！战斗民族，吃什么？</t>
+          <t>【板绘】审美难以互相理解</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BV1xE55zqEj8</t>
+          <t>BV18355zGEGX</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>出行</t>
+          <t>绘画</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1xE55zqEj8</t>
+          <t>https://b23.tv/BV18355zGEGX</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>你相信洞穴有龙吗  洞穴中价值不菲的金丝楠木你见过吗</t>
+          <t>9.9元一支“拼好糕”？资本又做局阴我！！</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BV18355zGErb</t>
+          <t>BV1u8V8zHE96</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>出行</t>
+          <t>美食测评</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV18355zGErb</t>
+          <t>https://b23.tv/BV1u8V8zHE96</t>
         </is>
       </c>
     </row>
@@ -2641,22 +2641,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>《河南游六花》</t>
+          <t>《地铁守护神 》10至13集 高光时刻</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BV1Qs5VzCEGR</t>
+          <t>BV1xC5LzgEAJ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>配音</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Qs5VzCEGR</t>
+          <t>https://b23.tv/BV1xC5LzgEAJ</t>
         </is>
       </c>
     </row>
@@ -2666,22 +2666,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>【AI山海经】外国山海经入门手册1.0...脑腐~tung tung 还有战斗力</t>
+          <t>躺平发育多门惊喜版？每秒减1000万亿金币，我崩溃了！</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BV1rTV8zTEpt</t>
+          <t>BV15TVdzAEAd</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>动漫杂谈</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1rTV8zTEpt</t>
+          <t>https://b23.tv/BV15TVdzAEAd</t>
         </is>
       </c>
     </row>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>《最会取名字の一集》</t>
+          <t>重生回到觉醒之前，带着十只神级魔兽归来！</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BV1SeVRzRErk</t>
+          <t>BV1tGETzAERt</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>国产原创相关</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1SeVRzRErk</t>
+          <t>https://b23.tv/BV1tGETzAERt</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>《内娱男星拍撕拉片》谁赢了（追星别进）</t>
+          <t>你可能不认识我…但一定听过我的歌</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BV1wX5LzPE4a</t>
+          <t>BV1vEVDzJEQi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1wX5LzPE4a</t>
+          <t>https://b23.tv/BV1vEVDzJEQi</t>
         </is>
       </c>
     </row>
@@ -2741,22 +2741,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>三白X圆脸：印巴五·七空战，印度又赢上了？</t>
+          <t>我的世界：起猛了，在MC里看见抓娃娃机了</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BV1Nw5LzuEL3</t>
+          <t>BV1k45AzaEyg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>社科·法律·心理</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1Nw5LzuEL3</t>
+          <t>https://b23.tv/BV1k45AzaEyg</t>
         </is>
       </c>
     </row>
@@ -2766,22 +2766,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>乌鲁鲁最正义的一集！</t>
+          <t>【真菌感染100天】超强细菌席卷大陆！二人踏上征途！#1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BV17oVDzWEAh</t>
+          <t>BV1pxETzWEbL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>网络游戏</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV17oVDzWEAh</t>
+          <t>https://b23.tv/BV1pxETzWEbL</t>
         </is>
       </c>
     </row>
@@ -2791,22 +2791,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>【官方】shino《怪物之歌》feat. 初音未来(初音ミク)</t>
+          <t>【p1】你参加综艺节目扮演逃匪 ，全球100亿观众都没有发现你是假扮的</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BV1xAVezxEkw</t>
+          <t>BV1dJEMzjEED</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VOCALOID·UTAU</t>
+          <t>国产原创相关</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1xAVezxEkw</t>
+          <t>https://b23.tv/BV1dJEMzjEED</t>
         </is>
       </c>
     </row>
@@ -2816,22 +2816,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>全是大学生的陪玩店？？？</t>
+          <t>自制漫画《怪物们》—嘟嘟哒：我爱你。</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BV1fV5LzfEPL</t>
+          <t>BV1sj5GzcEim</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>绘画</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1fV5LzfEPL</t>
+          <t>https://b23.tv/BV1sj5GzcEim</t>
         </is>
       </c>
     </row>
@@ -2841,22 +2841,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>这是穿山甲陷阱！</t>
+          <t>《小武狼王》穿越成雪狼王还成了女帝和魔君的狼爸！</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BV1yMVoznEuD</t>
+          <t>BV1dc5jzoEsY</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>国产原创相关</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1yMVoznEuD</t>
+          <t>https://b23.tv/BV1dc5jzoEsY</t>
         </is>
       </c>
     </row>
@@ -2866,22 +2866,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>《地铁守护神 》10至13集 高光时刻</t>
+          <t>什么？我是你最讨厌的蔬菜吗……</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BV1xC5LzgEAJ</t>
+          <t>BV1h4VXzQEUp</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV1xC5LzgEAJ</t>
+          <t>https://b23.tv/BV1h4VXzQEUp</t>
         </is>
       </c>
     </row>
@@ -2891,22 +2891,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>【板绘】审美难以互相理解</t>
+          <t>雷神：做饭，易如反掌😎</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BV18355zGEGX</t>
+          <t>BV18iVRzWEc6</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>绘画</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV18355zGEGX</t>
+          <t>https://b23.tv/BV18iVRzWEc6</t>
         </is>
       </c>
     </row>
@@ -2916,22 +2916,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>“跺脚变装”是啥！短短几天播放47亿！网友：太魔性！</t>
+          <t>以前小孩玩游戏 VS 现在小孩玩游戏</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BV11wVRz2Eg6</t>
+          <t>BV1J75KzKE7R</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>乐评盘点</t>
+          <t>同人·手书</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV11wVRz2Eg6</t>
+          <t>https://b23.tv/BV1J75KzKE7R</t>
         </is>
       </c>
     </row>
@@ -2941,22 +2941,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>终极变身or融合变身？当变身不能堆数量时，动画片应该怎么做？！</t>
+          <t>【MrBeast首发】神庙100小时极限生存挑战！奇琴伊察金字塔</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BV11r5Lz6Epi</t>
+          <t>BV1Kh5FzAE2t</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>动漫杂谈</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://b23.tv/BV11r5Lz6Epi</t>
+          <t>https://b23.tv/BV1Kh5FzAE2t</t>
         </is>
       </c>
     </row>
